--- a/data/s_vals/2024/teng_kai-wei.xlsx
+++ b/data/s_vals/2024/teng_kai-wei.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.004533508889512</v>
+        <v>0.3048080303191223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E2" t="n">
-        <v>4.944605425722401</v>
+        <v>616238.5361209477</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.535837448087388</v>
+        <v>616243.0541500541</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/teng_kai-wei.xlsx
+++ b/data/s_vals/2024/teng_kai-wei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>616243.0541500541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/teng_kai-wei.xlsx
+++ b/data/s_vals/2024/teng_kai-wei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -493,9 +488,6 @@
       </c>
       <c r="G2" t="n">
         <v>616243.0541500541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/teng_kai-wei.xlsx
+++ b/data/s_vals/2024/teng_kai-wei.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3048080303191223</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D2" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E2" t="n">
-        <v>616238.5361209477</v>
+        <v>71517.89157740913</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>616243.0541500541</v>
+        <v>71521.65825817114</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
